--- a/Mifos Automation Excels/Client/4586-RBI-DISBLOANON02JAN-WAIVEINT-INDCOLLSHEETON10JAN.xlsx
+++ b/Mifos Automation Excels/Client/4586-RBI-DISBLOANON02JAN-WAIVEINT-INDCOLLSHEETON10JAN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
@@ -612,7 +612,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -727,7 +727,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -787,7 +787,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -829,13 +829,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
@@ -870,20 +875,21 @@
       <c r="L1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12">
@@ -910,8 +916,9 @@
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -944,20 +951,21 @@
       <c r="L3" s="11">
         <v>830.03</v>
       </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
+      <c r="M3" s="11"/>
       <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
         <v>830.03</v>
       </c>
-      <c r="O3" s="11">
+      <c r="P3" s="11">
         <v>23.08</v>
       </c>
-      <c r="P3" s="11">
+      <c r="Q3" s="11">
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -992,9 +1000,7 @@
       <c r="L4" s="11">
         <v>3.3</v>
       </c>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
+      <c r="M4" s="11"/>
       <c r="N4" s="11">
         <v>0</v>
       </c>
@@ -1004,8 +1010,11 @@
       <c r="P4" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1038,9 +1047,7 @@
       <c r="L5" s="11">
         <v>0</v>
       </c>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
+      <c r="M5" s="11"/>
       <c r="N5" s="11">
         <v>0</v>
       </c>
@@ -1048,10 +1055,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="11">
         <v>853.11</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1084,9 +1094,7 @@
       <c r="L6" s="11">
         <v>0</v>
       </c>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
+      <c r="M6" s="11"/>
       <c r="N6" s="11">
         <v>0</v>
       </c>
@@ -1094,10 +1102,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="11">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1130,9 +1141,7 @@
       <c r="L7" s="11">
         <v>0</v>
       </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
+      <c r="M7" s="11"/>
       <c r="N7" s="11">
         <v>0</v>
       </c>
@@ -1140,10 +1149,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="11">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1176,9 +1188,7 @@
       <c r="L8" s="11">
         <v>0</v>
       </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
+      <c r="M8" s="11"/>
       <c r="N8" s="11">
         <v>0</v>
       </c>
@@ -1186,10 +1196,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="11">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -1222,9 +1235,7 @@
       <c r="L9" s="11">
         <v>0</v>
       </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
+      <c r="M9" s="11"/>
       <c r="N9" s="11">
         <v>0</v>
       </c>
@@ -1232,10 +1243,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="11">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1268,9 +1282,7 @@
       <c r="L10" s="11">
         <v>0</v>
       </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
+      <c r="M10" s="11"/>
       <c r="N10" s="11">
         <v>0</v>
       </c>
@@ -1278,10 +1290,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="11">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1314,9 +1329,7 @@
       <c r="L11" s="11">
         <v>0</v>
       </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
+      <c r="M11" s="11"/>
       <c r="N11" s="11">
         <v>0</v>
       </c>
@@ -1324,10 +1337,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="11">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -1360,9 +1376,7 @@
       <c r="L12" s="11">
         <v>0</v>
       </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
+      <c r="M12" s="11"/>
       <c r="N12" s="11">
         <v>0</v>
       </c>
@@ -1370,10 +1384,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="11">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -1406,9 +1423,7 @@
       <c r="L13" s="11">
         <v>0</v>
       </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
+      <c r="M13" s="11"/>
       <c r="N13" s="11">
         <v>0</v>
       </c>
@@ -1416,10 +1431,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="11">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1452,9 +1470,7 @@
       <c r="L14" s="11">
         <v>0</v>
       </c>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
+      <c r="M14" s="11"/>
       <c r="N14" s="11">
         <v>0</v>
       </c>
@@ -1462,10 +1478,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="11">
-        <v>854.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>854.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -1498,9 +1517,7 @@
       <c r="L15" s="11">
         <v>0</v>
       </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
+      <c r="M15" s="11"/>
       <c r="N15" s="11">
         <v>0</v>
       </c>
@@ -1508,7 +1525,56 @@
         <v>0</v>
       </c>
       <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
         <v>854.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <v>5</v>
+      </c>
+      <c r="C16" s="12">
+        <v>42095</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>15.12</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>15.12</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>15.12</v>
       </c>
     </row>
   </sheetData>
